--- a/tables/economics.xlsx
+++ b/tables/economics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-netlify/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43EDF6-5297-0E4C-9A73-68612FE3AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2799A7D-088A-A449-A5F3-6829AD19E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{2364DA53-DBDF-8B42-93E5-C7EBAEC63875}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>author</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Florian Heiss and Daniel Brunner</t>
+  </si>
+  <si>
+    <t>Causal Inference Econometrics Reading List and R Tutorials</t>
+  </si>
+  <si>
+    <t>https://github.com/annastavniychuk/econometrics_library</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F164C-99EE-544A-9A31-97AAB3D5BB8C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,80 +572,91 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
